--- a/data/trans_dic/P16A07-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Habitat-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
+          <t>Población que ha consumido medicamentos antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1391,7 +1391,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
+          <t>Población que ha consumido medicamentos antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A07-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01964387223124096</v>
+        <v>0.01937800044100473</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01563640847859466</v>
+        <v>0.01567956502743309</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.009609854474119993</v>
+        <v>0.009880432931343932</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03479291856347008</v>
+        <v>0.03312284545624149</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04433120104306184</v>
+        <v>0.04577606876488297</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07674286986963043</v>
+        <v>0.07642010415423317</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06469784375182722</v>
+        <v>0.06426402376975783</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05289303997473506</v>
+        <v>0.05376451506464799</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03637334729970045</v>
+        <v>0.0351749972477335</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04946615091460121</v>
+        <v>0.04981255113277314</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03974419319912124</v>
+        <v>0.04021687087725624</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04746944167162773</v>
+        <v>0.04683060925491938</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04673211630519384</v>
+        <v>0.04340937084504679</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03969359551780754</v>
+        <v>0.03945487699686937</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03214487306415288</v>
+        <v>0.03155535858650779</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06797561478293106</v>
+        <v>0.06937761028253601</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08117533583749874</v>
+        <v>0.08082462015650599</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1213028365341861</v>
+        <v>0.1214879348222074</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1113234048823913</v>
+        <v>0.1090459105158702</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08140517265668805</v>
+        <v>0.08214225765782464</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05746351139223438</v>
+        <v>0.0568994077867855</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.07676365566546901</v>
+        <v>0.07613124893405011</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06631516259773629</v>
+        <v>0.06387034842550587</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06944854281364418</v>
+        <v>0.06975174165826521</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.01720661998669733</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.02550815858867018</v>
+        <v>0.02550815858867017</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.06499629662601208</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01442194715288654</v>
+        <v>0.01508874418612445</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02441916143184466</v>
+        <v>0.02540041499329234</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01084737254653757</v>
+        <v>0.01024186546564964</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01705042736997075</v>
+        <v>0.01683358867415654</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05061675472357046</v>
+        <v>0.04875298660582561</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06455324989632297</v>
+        <v>0.06543061575827885</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05743295078893854</v>
+        <v>0.0567627752582282</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05302172830849256</v>
+        <v>0.05340279493885479</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03544645806776727</v>
+        <v>0.03524731145436034</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04841402110025872</v>
+        <v>0.04777691351945003</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03665391866743598</v>
+        <v>0.03667471316994896</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03763376831437856</v>
+        <v>0.03756093857293621</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03583726829601182</v>
+        <v>0.03510644990375097</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0490662726219722</v>
+        <v>0.05119330614304226</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02709524233405961</v>
+        <v>0.02644040499520584</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03750743348015215</v>
+        <v>0.03647837471759893</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08471346372724299</v>
+        <v>0.0826188714553877</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1008634220403443</v>
+        <v>0.09899316505084003</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0913782764737032</v>
+        <v>0.09009773430364845</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07795730654655174</v>
+        <v>0.07767734070772876</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05493912475157944</v>
+        <v>0.0547350439506643</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07065075436596953</v>
+        <v>0.06899877850209221</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05566355732326567</v>
+        <v>0.05495440972177037</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05386906772847942</v>
+        <v>0.05432789431416338</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.03774082667896966</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.05823732390732888</v>
+        <v>0.05823732390732889</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.007011189231131906</v>
+        <v>0.007125721888733639</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01084820750565144</v>
+        <v>0.01101249355226261</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01177533275625984</v>
+        <v>0.01181598564957035</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02144188604073267</v>
+        <v>0.02198352721943955</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04225240836468944</v>
+        <v>0.04166086527569578</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05495171422661242</v>
+        <v>0.05468405012279313</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03971337307176127</v>
+        <v>0.04052937137268148</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06797465524248798</v>
+        <v>0.06805908534041569</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02750276844566604</v>
+        <v>0.02660026010515705</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03651318878021063</v>
+        <v>0.03614650940572416</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02791468585995951</v>
+        <v>0.02856565553552765</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04790284773481971</v>
+        <v>0.04898211419897137</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02523704452377422</v>
+        <v>0.02580616396380646</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03783835474260865</v>
+        <v>0.03929947888196707</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03313589834854778</v>
+        <v>0.03413110926593309</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04993448562841355</v>
+        <v>0.04764315613781146</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07733615633155322</v>
+        <v>0.07511342770125283</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09259566242782417</v>
+        <v>0.09130429707697366</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07257776709425562</v>
+        <v>0.07360895005825026</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09991667910478168</v>
+        <v>0.09977606391466036</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04736856285855572</v>
+        <v>0.04589457143477411</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05999194593542088</v>
+        <v>0.05911975330905172</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04934803993712346</v>
+        <v>0.04835763999010944</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06972008078550489</v>
+        <v>0.06987805453379864</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.05284165808463842</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.06446246200671658</v>
+        <v>0.0644624620067166</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01081505867742778</v>
+        <v>0.01077249809689771</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02692216326036764</v>
+        <v>0.02804016415823979</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02069101324390584</v>
+        <v>0.02142781255925925</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02460540637996434</v>
+        <v>0.02492313584737434</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05669029669695401</v>
+        <v>0.0559716071540499</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06893609521298215</v>
+        <v>0.06991625241741158</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05750337198173905</v>
+        <v>0.05692424810787483</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07711043363426398</v>
+        <v>0.07698854206258161</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03742688683349426</v>
+        <v>0.03699186514565161</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0534516422783511</v>
+        <v>0.05386950539499981</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04294450024744296</v>
+        <v>0.04340316447593826</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05577253467415136</v>
+        <v>0.05484307223746463</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02836652175581324</v>
+        <v>0.02876000143872028</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05671158688267266</v>
+        <v>0.05565719661541124</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04362244705589934</v>
+        <v>0.04314283095128385</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04718717708473118</v>
+        <v>0.04693242344605649</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08848061582649006</v>
+        <v>0.08919313462314175</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1061437238424427</v>
+        <v>0.1033089816435352</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09170043182163125</v>
+        <v>0.09040123925627919</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1052918354499883</v>
+        <v>0.1059297134195691</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0555283617522331</v>
+        <v>0.05582305351785002</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07563089423037841</v>
+        <v>0.07667372191611538</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06460196159768741</v>
+        <v>0.06383942251627694</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07379551146179776</v>
+        <v>0.07306813606558052</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.02186187853666031</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.03447877504063267</v>
+        <v>0.03447877504063266</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.06456586112839455</v>
@@ -1229,7 +1229,7 @@
         <v>0.07100815138412862</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.07669694002990696</v>
+        <v>0.07669694002990694</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.04331970597573254</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01694897188657182</v>
+        <v>0.01668021194223581</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02538995448569331</v>
+        <v>0.02515105171171897</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01732134187047071</v>
+        <v>0.01767339873282708</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.028874175203278</v>
+        <v>0.02869012686092539</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05669620558517999</v>
+        <v>0.0567132671622901</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07415071258014891</v>
+        <v>0.07459121020473394</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06229299708715007</v>
+        <v>0.06216570752465153</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06977869451680188</v>
+        <v>0.06920088941080593</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03867166299025256</v>
+        <v>0.03806250496946381</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05256217387374502</v>
+        <v>0.05306928403960113</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04175302855274349</v>
+        <v>0.04192243259504641</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05196923747121174</v>
+        <v>0.05129042724910409</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02677481713909925</v>
+        <v>0.02676556389797543</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03870741165667632</v>
+        <v>0.03801009333163842</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02792932627635689</v>
+        <v>0.02754892388969554</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04103873602857809</v>
+        <v>0.04112993669365869</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07336208737893515</v>
+        <v>0.07442887647006782</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09294212985307433</v>
+        <v>0.09303465425225178</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07968540229842778</v>
+        <v>0.08059476433475893</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08474513491205733</v>
+        <v>0.08369801475756017</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0483507486051948</v>
+        <v>0.04823790714918692</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.06447780230015633</v>
+        <v>0.06447346357131743</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.05252616199498613</v>
+        <v>0.05294411666640923</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06129302740981669</v>
+        <v>0.06093205075749934</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>13613</v>
+        <v>13429</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10957</v>
+        <v>10988</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6485</v>
+        <v>6667</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>24015</v>
+        <v>22862</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>30515</v>
+        <v>31510</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>53342</v>
+        <v>53118</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>43531</v>
+        <v>43239</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>38759</v>
+        <v>39398</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>50244</v>
+        <v>48589</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>69047</v>
+        <v>69530</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>53561</v>
+        <v>54198</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>67549</v>
+        <v>66640</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>32385</v>
+        <v>30082</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>27816</v>
+        <v>27649</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>21691</v>
+        <v>21294</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>46918</v>
+        <v>47885</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>55877</v>
+        <v>55636</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>84314</v>
+        <v>84443</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>74903</v>
+        <v>73370</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>59652</v>
+        <v>60192</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>79377</v>
+        <v>78598</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>107150</v>
+        <v>106267</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>89369</v>
+        <v>86074</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>98825</v>
+        <v>99257</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>13871</v>
+        <v>14512</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>24857</v>
+        <v>25856</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>11091</v>
+        <v>10472</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>17884</v>
+        <v>17657</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>49017</v>
+        <v>47212</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>66276</v>
+        <v>67177</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>59898</v>
+        <v>59199</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>56778</v>
+        <v>57186</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>68419</v>
+        <v>68034</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>98989</v>
+        <v>97687</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>75703</v>
+        <v>75746</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>79774</v>
+        <v>79620</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>34468</v>
+        <v>33765</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>49947</v>
+        <v>52112</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>27703</v>
+        <v>27033</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>39342</v>
+        <v>38263</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>82036</v>
+        <v>80008</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>103556</v>
+        <v>101636</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>95300</v>
+        <v>93964</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>83480</v>
+        <v>83180</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>106043</v>
+        <v>105649</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>144455</v>
+        <v>141078</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>114964</v>
+        <v>113500</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>114189</v>
+        <v>115162</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4757</v>
+        <v>4835</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8196</v>
+        <v>8320</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8944</v>
+        <v>8975</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>17198</v>
+        <v>17633</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>28894</v>
+        <v>28489</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>42658</v>
+        <v>42450</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>31175</v>
+        <v>31816</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>55173</v>
+        <v>55241</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>37468</v>
+        <v>36239</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>55930</v>
+        <v>55369</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>43116</v>
+        <v>44121</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>77303</v>
+        <v>79045</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17124</v>
+        <v>17510</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>28587</v>
+        <v>29691</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>25168</v>
+        <v>25924</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>40052</v>
+        <v>38214</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>52886</v>
+        <v>51366</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>71880</v>
+        <v>70878</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>56974</v>
+        <v>57784</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>81099</v>
+        <v>80985</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>64533</v>
+        <v>62524</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>91894</v>
+        <v>90558</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>76221</v>
+        <v>74691</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>112511</v>
+        <v>112766</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10190</v>
+        <v>10150</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>25413</v>
+        <v>26468</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>19399</v>
+        <v>20090</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>24361</v>
+        <v>24675</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>58879</v>
+        <v>58133</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>72298</v>
+        <v>73326</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>60021</v>
+        <v>59416</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>86135</v>
+        <v>85999</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>74136</v>
+        <v>73275</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>106513</v>
+        <v>107346</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>85088</v>
+        <v>85997</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>117518</v>
+        <v>115559</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>26728</v>
+        <v>27098</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>53532</v>
+        <v>52537</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>40899</v>
+        <v>40449</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>46718</v>
+        <v>46466</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>91897</v>
+        <v>92637</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>111320</v>
+        <v>108347</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>95715</v>
+        <v>94359</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>117614</v>
+        <v>118327</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>109992</v>
+        <v>110576</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>150710</v>
+        <v>152788</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>127999</v>
+        <v>126488</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>155494</v>
+        <v>153961</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>55517</v>
+        <v>54636</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>86787</v>
+        <v>85970</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>58795</v>
+        <v>59990</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>101963</v>
+        <v>101313</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>191588</v>
+        <v>191645</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>262999</v>
+        <v>264561</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>220800</v>
+        <v>220349</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>260436</v>
+        <v>258279</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>257349</v>
+        <v>253295</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>366093</v>
+        <v>369625</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>289720</v>
+        <v>290895</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>377483</v>
+        <v>372553</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>87702</v>
+        <v>87671</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>132308</v>
+        <v>129924</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>94802</v>
+        <v>93511</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>144919</v>
+        <v>145241</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>247905</v>
+        <v>251510</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>329649</v>
+        <v>329977</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>282448</v>
+        <v>285672</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>316295</v>
+        <v>312387</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>321761</v>
+        <v>321010</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>449085</v>
+        <v>449055</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>364473</v>
+        <v>367374</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>445208</v>
+        <v>442586</v>
       </c>
     </row>
     <row r="24">
